--- a/Python/lambor_Inputbox_HLHD-XGTC.xlsx
+++ b/Python/lambor_Inputbox_HLHD-XGTC.xlsx
@@ -33,47 +33,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[1]/div[2]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[4]/div[1]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[4]/div[2]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[5]/div[1]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[5]/div[2]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[6]/div[1]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[6]/div[2]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[7]/div[1]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[7]/div[2]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[8]/div[1]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[8]/div[2]/a</t>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[4]/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[1]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[4]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[5]/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[5]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[6]/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[6]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[7]/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[7]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[8]/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[8]/div[2]/a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +397,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -424,12 +419,12 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
